--- a/data/trans_dic/P57B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1894787032640093</v>
+        <v>0.1866244200863681</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2772648786120356</v>
+        <v>0.2799191344641678</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2472396060238681</v>
+        <v>0.2472723024246012</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2521981794952611</v>
+        <v>0.2515526890054252</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3265212299501649</v>
+        <v>0.3261405779891019</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2869591056949585</v>
+        <v>0.2859832749284542</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.08494459418743011</v>
+        <v>0.08494459418743013</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1117951669708882</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07450177628738659</v>
+        <v>0.07327659891602373</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.100534974628781</v>
+        <v>0.1005686447616519</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09001248002602438</v>
+        <v>0.08999713052648166</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09828503742816021</v>
+        <v>0.09705018081239405</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1236640847870521</v>
+        <v>0.1246230489839938</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1071472957434489</v>
+        <v>0.1067117895905784</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.06358115597649215</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.08509638969468035</v>
+        <v>0.08509638969468034</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.07451352291775368</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04682461919157566</v>
+        <v>0.04619557642981415</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0691656679816877</v>
+        <v>0.06844471020428371</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06317951535030178</v>
+        <v>0.0614587889028913</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08685168903897335</v>
+        <v>0.08624145793817094</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1058207448267515</v>
+        <v>0.1063251111510896</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08977320163010062</v>
+        <v>0.08918605123024036</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09244246159179893</v>
+        <v>0.09235962149578539</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.138482633059831</v>
+        <v>0.1366785664352387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1183990649078163</v>
+        <v>0.1180568011513456</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1134080729213138</v>
+        <v>0.1129755824834664</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1579558986312634</v>
+        <v>0.1566278556873505</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1326297375563232</v>
+        <v>0.1332252459055012</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>105849</v>
+        <v>104255</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>219040</v>
+        <v>221137</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>333436</v>
+        <v>333481</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>140886</v>
+        <v>140526</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>257953</v>
+        <v>257652</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>387004</v>
+        <v>385688</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>164304</v>
+        <v>161602</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>215580</v>
+        <v>215652</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>391528</v>
+        <v>391461</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>216755</v>
+        <v>214032</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>265177</v>
+        <v>267233</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>466059</v>
+        <v>464165</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>33124</v>
+        <v>32679</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>50545</v>
+        <v>50018</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>90864</v>
+        <v>88389</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>61440</v>
+        <v>61008</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>77331</v>
+        <v>77700</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>129111</v>
+        <v>128266</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>320907</v>
+        <v>320619</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>507554</v>
+        <v>500942</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>844959</v>
+        <v>842516</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>393687</v>
+        <v>392186</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>578926</v>
+        <v>574058</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>946516</v>
+        <v>950766</v>
       </c>
     </row>
     <row r="20">
